--- a/KasHarian.xlsx
+++ b/KasHarian.xlsx
@@ -981,129 +981,126 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="119">
     <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:L3"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C6:E6"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C12:E12"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C15:E15"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C18:E18"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C21:E21"/>
     <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C24:E24"/>
     <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C27:E27"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C30:E30"/>
     <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C33:E33"/>
     <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C36:E36"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C39:E39"/>
     <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C42:E42"/>
     <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C45:E45"/>
     <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C48:E48"/>
     <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C51:E51"/>
     <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C54:E54"/>
     <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C57:E57"/>
     <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C60:E60"/>
     <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C63:E63"/>
     <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C66:E66"/>
     <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C69:E69"/>
     <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C72:E72"/>
     <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C75:E75"/>
     <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C78:E78"/>
     <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C81:E81"/>
     <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C84:E84"/>
     <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C87:E87"/>
     <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C90:E90"/>
     <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C93:E93"/>
     <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C96:E96"/>
     <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C99:E99"/>
     <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C102:E102"/>
     <mergeCell ref="A105:B105"/>
-    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C105:E105"/>
     <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C108:E108"/>
     <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C111:E111"/>
     <mergeCell ref="A114:B114"/>
-    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C114:E114"/>
     <mergeCell ref="A117:B117"/>
-    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C117:E117"/>
     <mergeCell ref="A120:B120"/>
-    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C120:E120"/>
     <mergeCell ref="A123:B123"/>
-    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C123:E123"/>
     <mergeCell ref="A126:B126"/>
-    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="C126:E126"/>
     <mergeCell ref="A129:B129"/>
-    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C129:E129"/>
     <mergeCell ref="A132:B132"/>
-    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C132:E132"/>
     <mergeCell ref="A135:B135"/>
-    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C135:E135"/>
     <mergeCell ref="A138:B138"/>
-    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C138:E138"/>
     <mergeCell ref="A141:B141"/>
-    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C141:E141"/>
     <mergeCell ref="A144:B144"/>
-    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="C144:E144"/>
     <mergeCell ref="A147:B147"/>
-    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C147:E147"/>
     <mergeCell ref="A150:B150"/>
-    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C150:E150"/>
     <mergeCell ref="A153:B153"/>
-    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C153:E153"/>
     <mergeCell ref="A156:B156"/>
-    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="C156:E156"/>
     <mergeCell ref="A159:B159"/>
-    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C159:E159"/>
     <mergeCell ref="A162:B162"/>
-    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C162:E162"/>
     <mergeCell ref="A165:B165"/>
-    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C165:E165"/>
     <mergeCell ref="A168:B168"/>
-    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="C168:E168"/>
     <mergeCell ref="A171:B171"/>
-    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="C171:E171"/>
     <mergeCell ref="A174:B174"/>
-    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C174:E174"/>
     <mergeCell ref="A177:B177"/>
-    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C177:E177"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
